--- a/Test/testfile2 keynotes.xlsx
+++ b/Test/testfile2 keynotes.xlsx
@@ -32,7 +32,7 @@
     <t>Roof</t>
   </si>
   <si>
-    <t>Mechanically generated keynote file. REMEMBER TO SAVE after editing, then SAVE FILE AS Text (Tab delimited)(*.txt), then load/reload your keynotes on your project Revit file so Revit can see the changes. All keynote / text editing shall be on the Excel file only.</t>
+    <t>REMEMBER TO SAVE after editing, then SAVE FILE AS Text (Tab delimited)(*.txt), then load/reload your keynotes on your project Revit file so Revit can see the changes. All keynote / text editing shall be on the Excel file only.</t>
   </si>
   <si>
     <t>GENERAL</t>
